--- a/data/Results - Masterfile.xlsx
+++ b/data/Results - Masterfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOL428\Documents\GitHub\SynBioMLMH\SynbioML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B64828-D208-4B35-B746-7E0B0F357A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D89A9F-6F9B-4CD3-99E7-EB2CAABF0002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Flow Cytometer" sheetId="2" r:id="rId2"/>
     <sheet name="Archived Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2126,13 +2126,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:P269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O182" sqref="O182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2609,10 +2609,10 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>479</v>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
         <v>477</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -11882,7 +11882,7 @@
         <v>477</v>
       </c>
       <c r="P176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -11935,7 +11935,7 @@
         <v>477</v>
       </c>
       <c r="P177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -11988,7 +11988,7 @@
         <v>477</v>
       </c>
       <c r="P178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -12041,7 +12041,7 @@
         <v>477</v>
       </c>
       <c r="P179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -15223,19 +15223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -22003,17 +22003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="J1" t="s">
         <v>384</v>
       </c>
